--- a/Output/PBL/Customer/TSA/TSA_Contracts.xlsx
+++ b/Output/PBL/Customer/TSA/TSA_Contracts.xlsx
@@ -8,12 +8,13 @@
   <sheets>
     <sheet name="Veh" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Price" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="PSR" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t xml:space="preserve">Vehicle.AwardTask</t>
   </si>
@@ -76,15 +77,25 @@
   </si>
   <si>
     <t xml:space="preserve">FFP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SimpleArea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Products</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Services</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="166" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="167" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="168" formatCode="0.00,,,&quot;B&quot;"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -120,10 +131,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -989,4 +1001,260 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false">
+      <pane ySplit="1" xSplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <f>M1</f>
+      </c>
+      <c r="M1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N1" t="s">
+        <v>2</v>
+      </c>
+      <c r="O1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>5</v>
+      </c>
+      <c r="R1" t="s">
+        <v>6</v>
+      </c>
+      <c r="S1" t="s">
+        <v>7</v>
+      </c>
+      <c r="T1" t="s">
+        <v>8</v>
+      </c>
+      <c r="U1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <f>M2</f>
+      </c>
+      <c r="M2" t="s">
+        <v>22</v>
+      </c>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <f>M3</f>
+      </c>
+      <c r="M3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N3" s="3" t="n">
+        <v>21243078.82</v>
+      </c>
+      <c r="O3" s="3" t="n">
+        <v>120885653.1875</v>
+      </c>
+      <c r="P3" s="3" t="n">
+        <v>99984351.8536</v>
+      </c>
+      <c r="Q3" s="3" t="n">
+        <v>86452724.4375</v>
+      </c>
+      <c r="R3" s="3" t="n">
+        <v>90927100.23</v>
+      </c>
+      <c r="S3" s="3" t="n">
+        <v>-16461048</v>
+      </c>
+      <c r="T3" s="3" t="n">
+        <v>-32848483.39</v>
+      </c>
+      <c r="U3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" s="3"/>
+      <c r="W3" s="3"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <f>M4</f>
+      </c>
+      <c r="M4" t="s">
+        <v>14</v>
+      </c>
+      <c r="N4" s="3" t="str">
+        <f>Sum(N2:N3)</f>
+      </c>
+      <c r="O4" s="3" t="str">
+        <f>Sum(O2:O3)</f>
+      </c>
+      <c r="P4" s="3" t="str">
+        <f>Sum(P2:P3)</f>
+      </c>
+      <c r="Q4" s="3" t="str">
+        <f>Sum(Q2:Q3)</f>
+      </c>
+      <c r="R4" s="3" t="str">
+        <f>Sum(R2:R3)</f>
+      </c>
+      <c r="S4" s="3" t="str">
+        <f>Sum(S2:S3)</f>
+      </c>
+      <c r="T4" s="3" t="str">
+        <f>Sum(T2:T3)</f>
+      </c>
+      <c r="U4" s="3" t="str">
+        <f>Sum(U2:U3)</f>
+      </c>
+      <c r="V4" s="3" t="str">
+        <f>Sum(V2:V3)</f>
+      </c>
+      <c r="W4" s="3"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <f>M7</f>
+      </c>
+      <c r="M7" t="s">
+        <v>21</v>
+      </c>
+      <c r="N7" t="s">
+        <v>2</v>
+      </c>
+      <c r="O7" t="s">
+        <v>3</v>
+      </c>
+      <c r="P7" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>5</v>
+      </c>
+      <c r="R7" t="s">
+        <v>6</v>
+      </c>
+      <c r="S7" t="s">
+        <v>7</v>
+      </c>
+      <c r="T7" t="s">
+        <v>8</v>
+      </c>
+      <c r="U7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <f>M8</f>
+      </c>
+      <c r="M8" t="s">
+        <v>22</v>
+      </c>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <f>M9</f>
+      </c>
+      <c r="M9" t="s">
+        <v>23</v>
+      </c>
+      <c r="N9" s="3" t="n">
+        <v>29165927.6804791</v>
+      </c>
+      <c r="O9" s="3" t="n">
+        <v>164546294.37098</v>
+      </c>
+      <c r="P9" s="3" t="n">
+        <v>133418122.415602</v>
+      </c>
+      <c r="Q9" s="3" t="n">
+        <v>113305605.283761</v>
+      </c>
+      <c r="R9" s="3" t="n">
+        <v>117045988.835604</v>
+      </c>
+      <c r="S9" s="3" t="n">
+        <v>-20809860.4950134</v>
+      </c>
+      <c r="T9" s="3" t="n">
+        <v>-41101008.2754276</v>
+      </c>
+      <c r="U9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" s="3"/>
+      <c r="W9" s="3"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <f>M10</f>
+      </c>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="3"/>
+      <c r="W10" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
 </file>
--- a/Output/PBL/Customer/TSA/TSA_Contracts.xlsx
+++ b/Output/PBL/Customer/TSA/TSA_Contracts.xlsx
@@ -92,10 +92,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
-    <numFmt numFmtId="166" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="167" formatCode="0.00,,,&quot;B&quot;"/>
+  <numFmts count="4">
+    <numFmt numFmtId="171" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="172" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="168" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="173" formatCode="0.00,,,&quot;B&quot;"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -131,11 +132,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="172" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="173" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1053,26 +1055,26 @@
       <c r="M2" t="s">
         <v>22</v>
       </c>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" s="3"/>
-      <c r="V2" s="3"/>
-      <c r="W2" s="3"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" s="4"/>
+      <c r="V2" s="4"/>
+      <c r="W2" s="4"/>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -1081,32 +1083,32 @@
       <c r="M3" t="s">
         <v>23</v>
       </c>
-      <c r="N3" s="3" t="n">
+      <c r="N3" s="4" t="n">
         <v>21243078.82</v>
       </c>
-      <c r="O3" s="3" t="n">
+      <c r="O3" s="4" t="n">
         <v>120885653.1875</v>
       </c>
-      <c r="P3" s="3" t="n">
+      <c r="P3" s="4" t="n">
         <v>99984351.8536</v>
       </c>
-      <c r="Q3" s="3" t="n">
+      <c r="Q3" s="4" t="n">
         <v>86452724.4375</v>
       </c>
-      <c r="R3" s="3" t="n">
+      <c r="R3" s="4" t="n">
         <v>90927100.23</v>
       </c>
-      <c r="S3" s="3" t="n">
+      <c r="S3" s="4" t="n">
         <v>-16461048</v>
       </c>
-      <c r="T3" s="3" t="n">
+      <c r="T3" s="4" t="n">
         <v>-32848483.39</v>
       </c>
-      <c r="U3" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" s="3"/>
-      <c r="W3" s="3"/>
+      <c r="U3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" s="4"/>
+      <c r="W3" s="4"/>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -1115,34 +1117,34 @@
       <c r="M4" t="s">
         <v>14</v>
       </c>
-      <c r="N4" s="3" t="str">
+      <c r="N4" s="4" t="str">
         <f>Sum(N2:N3)</f>
       </c>
-      <c r="O4" s="3" t="str">
+      <c r="O4" s="4" t="str">
         <f>Sum(O2:O3)</f>
       </c>
-      <c r="P4" s="3" t="str">
+      <c r="P4" s="4" t="str">
         <f>Sum(P2:P3)</f>
       </c>
-      <c r="Q4" s="3" t="str">
+      <c r="Q4" s="4" t="str">
         <f>Sum(Q2:Q3)</f>
       </c>
-      <c r="R4" s="3" t="str">
+      <c r="R4" s="4" t="str">
         <f>Sum(R2:R3)</f>
       </c>
-      <c r="S4" s="3" t="str">
+      <c r="S4" s="4" t="str">
         <f>Sum(S2:S3)</f>
       </c>
-      <c r="T4" s="3" t="str">
+      <c r="T4" s="4" t="str">
         <f>Sum(T2:T3)</f>
       </c>
-      <c r="U4" s="3" t="str">
+      <c r="U4" s="4" t="str">
         <f>Sum(U2:U3)</f>
       </c>
-      <c r="V4" s="3" t="str">
+      <c r="V4" s="4" t="str">
         <f>Sum(V2:V3)</f>
       </c>
-      <c r="W4" s="3"/>
+      <c r="W4" s="4"/>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -1183,26 +1185,26 @@
       <c r="M8" t="s">
         <v>22</v>
       </c>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" s="3"/>
-      <c r="V8" s="3"/>
-      <c r="W8" s="3"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" s="4"/>
+      <c r="V8" s="4"/>
+      <c r="W8" s="4"/>
     </row>
     <row r="9">
       <c r="A9" t="str">
@@ -1211,47 +1213,47 @@
       <c r="M9" t="s">
         <v>23</v>
       </c>
-      <c r="N9" s="3" t="n">
+      <c r="N9" s="4" t="n">
         <v>29165927.6804791</v>
       </c>
-      <c r="O9" s="3" t="n">
+      <c r="O9" s="4" t="n">
         <v>164546294.37098</v>
       </c>
-      <c r="P9" s="3" t="n">
+      <c r="P9" s="4" t="n">
         <v>133418122.415602</v>
       </c>
-      <c r="Q9" s="3" t="n">
+      <c r="Q9" s="4" t="n">
         <v>113305605.283761</v>
       </c>
-      <c r="R9" s="3" t="n">
+      <c r="R9" s="4" t="n">
         <v>117045988.835604</v>
       </c>
-      <c r="S9" s="3" t="n">
+      <c r="S9" s="4" t="n">
         <v>-20809860.4950134</v>
       </c>
-      <c r="T9" s="3" t="n">
+      <c r="T9" s="4" t="n">
         <v>-41101008.2754276</v>
       </c>
-      <c r="U9" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="V9" s="3"/>
-      <c r="W9" s="3"/>
+      <c r="U9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" s="4"/>
+      <c r="W9" s="4"/>
     </row>
     <row r="10">
       <c r="A10" t="str">
         <f>M10</f>
       </c>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="3"/>
-      <c r="S10" s="3"/>
-      <c r="T10" s="3"/>
-      <c r="U10" s="3"/>
-      <c r="V10" s="3"/>
-      <c r="W10" s="3"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="4"/>
+      <c r="T10" s="4"/>
+      <c r="U10" s="4"/>
+      <c r="V10" s="4"/>
+      <c r="W10" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Output/PBL/Customer/TSA/TSA_Contracts.xlsx
+++ b/Output/PBL/Customer/TSA/TSA_Contracts.xlsx
@@ -93,10 +93,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="171" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="172" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="168" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="174" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="175" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="173" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="176" formatCode="0.00,,,&quot;B&quot;"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -134,10 +134,10 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="172" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="174" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="175" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="173" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
